--- a/biology/Botanique/Parc_Tenbosch/Parc_Tenbosch.xlsx
+++ b/biology/Botanique/Parc_Tenbosch/Parc_Tenbosch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc Tenbosch (Tenbosch Park en néerlandais) est un parc public d’environ 2 hectares, situé dans la commune d’Ixelles à Bruxelles.
@@ -512,11 +524,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La création du parc résulte du rachat, en 1981, de deux hectares du domaine de Jean-Louis Semet[2], dendrologue, ancien propriétaire de la quasi totalité de l'îlot où se situe le parc actuellement. Celui-ci a progressivement transformé sa propriété en petit arboretum[3].
-Pendant trente ans, les projets de lotissement se succèdent sans aboutir et c'est grâce à l'initiative du Comité de quartier Tenbosch que le terrain échappe à un projet immobilier pour devenir, au mois de mai de l'an 1981[3], le futur Parc Tenbosch sous les auspices de la Région bruxelloise et de la Ministre Cécile Goor-Eyben, secrétaire d'État, qui apporte les fonds nécessaires à l'achat du terrain.
-Konstantin Stefanovitch, peintre et architecte, réalise le plan du futur parc Tenbosch. Les travaux d'aménagement du parc sont effectués par René Pechère[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La création du parc résulte du rachat, en 1981, de deux hectares du domaine de Jean-Louis Semet, dendrologue, ancien propriétaire de la quasi totalité de l'îlot où se situe le parc actuellement. Celui-ci a progressivement transformé sa propriété en petit arboretum.
+Pendant trente ans, les projets de lotissement se succèdent sans aboutir et c'est grâce à l'initiative du Comité de quartier Tenbosch que le terrain échappe à un projet immobilier pour devenir, au mois de mai de l'an 1981, le futur Parc Tenbosch sous les auspices de la Région bruxelloise et de la Ministre Cécile Goor-Eyben, secrétaire d'État, qui apporte les fonds nécessaires à l'achat du terrain.
+Konstantin Stefanovitch, peintre et architecte, réalise le plan du futur parc Tenbosch. Les travaux d'aménagement du parc sont effectués par René Pechère.
 </t>
         </is>
       </c>
